--- a/resources/class16/join-examples.xlsx
+++ b/resources/class16/join-examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\databases\lectures\16-join-algs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EE0303-C5FC-4EB0-BDC2-364CD48D14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313FC1B2-6582-41A0-AC06-A26BFD52A037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,10 +956,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,489 +2393,510 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="23" t="s">
+    <row r="118" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="18" t="s">
+    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="18" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>0</v>
+      <c r="B126" s="12">
+        <v>302</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="14">
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127" s="12">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D127" s="14">
-        <v>25</v>
+      <c r="D127" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="12">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" s="12">
-        <v>337</v>
+        <v>251</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B130" s="12">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" s="12">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B132" s="12">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D132" s="14" t="s">
-        <v>39</v>
+      <c r="D132" s="14">
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B133" s="12">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="14">
-        <v>17</v>
+      <c r="D133" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" s="12">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B135" s="12">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D135" s="14" t="s">
-        <v>34</v>
+      <c r="D135" s="14">
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B136" s="12">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D136" s="14">
-        <v>22</v>
+      <c r="D136" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B137" s="12">
-        <v>61</v>
+        <v>494</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="12">
-        <v>494</v>
-      </c>
-      <c r="C138" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="15">
+        <v>230</v>
+      </c>
+      <c r="C138" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D138" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="15">
-        <v>230</v>
-      </c>
-      <c r="C139" s="16" t="s">
+      <c r="D138" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>42</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="2">
+        <v>352</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D139" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>45</v>
-      </c>
-      <c r="H143" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144" t="s">
-        <v>42</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>0</v>
+      <c r="E144" s="8" t="str">
+        <f>_xlfn.XLOOKUP(C144,$B$126:$B$138,$D$126:$D$138,"null")</f>
+        <v>3, 14</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145" s="2">
-        <v>352</v>
+        <v>90</v>
       </c>
       <c r="D145" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E145" s="8" t="str">
-        <f>_xlfn.XLOOKUP(C145,$B$127:$B$139,$D$127:$D$139,"null")</f>
-        <v>3, 14</v>
+        <f t="shared" ref="E145:E159" si="0">_xlfn.XLOOKUP(C145,$B$126:$B$138,$D$126:$D$138,"null")</f>
+        <v>null</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J145" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146" s="2">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E146" s="8" t="str">
-        <f t="shared" ref="E146:E160" si="0">_xlfn.XLOOKUP(C146,$B$127:$B$139,$D$127:$D$139,"null")</f>
-        <v>null</v>
+        <f t="shared" si="0"/>
+        <v>5, 18</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J146" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" s="2">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E147" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>5, 18</v>
+        <v>1, 4, 7, 9</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J147" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C148" s="2">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E148" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1, 4, 7, 9</v>
+        <v>2, 11</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J148" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C149" s="2">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="D149" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E149" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>2, 11</v>
+        <v>6, 8</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J149" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150" s="2">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E150" s="8" t="str">
+      <c r="E150" s="8">
         <f t="shared" si="0"/>
-        <v>6, 8</v>
+        <v>25</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J150" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" s="2">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D151" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E151" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J151" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" s="2">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="D152" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E152" s="8">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J152" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C153" s="2">
-        <v>312</v>
+        <v>494</v>
       </c>
       <c r="D153" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E153" s="8">
+      <c r="E153" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19, 21</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J153" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C154" s="2">
-        <v>494</v>
+        <v>71</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E154" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>19, 21</v>
+        <v>10, 13</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J154" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C155" s="2">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E155" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>10, 13</v>
+        <v>15, 16</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J155" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C156" s="2">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="D156" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E156" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>15, 16</v>
+        <v>12, 23</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J156" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C157" s="2">
-        <v>191</v>
+        <v>360</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E157" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>12, 23</v>
+        <v>null</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J157" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C158" s="2">
-        <v>360</v>
+        <v>263</v>
       </c>
       <c r="D158" s="13" t="s">
         <v>41</v>
@@ -2885,60 +2906,47 @@
         <v>null</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J158" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C159" s="2">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D159" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E159" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>null</v>
+        <v>20, 24</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J159" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C160" s="2">
-        <v>337</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E160" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>20, 24</v>
-      </c>
       <c r="I160" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J160" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I161" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J161" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -2946,15 +2954,15 @@
         <v>16</v>
       </c>
       <c r="J162" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I163" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J163" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -2962,15 +2970,15 @@
         <v>17</v>
       </c>
       <c r="J164" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I165" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J165" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -2978,15 +2986,15 @@
         <v>18</v>
       </c>
       <c r="J166" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I167" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J167" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -2994,52 +3002,44 @@
         <v>20</v>
       </c>
       <c r="J168" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I169" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J169" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>25</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C173" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>26</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C175" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>27</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C177" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:D139">
-    <sortCondition ref="A127:A139"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A126:D138">
+    <sortCondition ref="A126:A138"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A118:F118"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="D2:E2"/>
@@ -3051,7 +3051,7 @@
     <mergeCell ref="A76:F76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="117" max="16383" man="1"/>
   </rowBreaks>
